--- a/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:54:26+00:00</t>
+    <t>2024-09-18T08:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T08:16:45+00:00</t>
+    <t>2024-10-02T08:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1769,7 +1769,7 @@
 </t>
   </si>
   <si>
-    <t>Dispositif utilisé pour l'observation
+    <t>Dispositif utilisé pour récolter l'information. Ce dispositif peut être l'application permettant de renseigner la valeur. 
 Si la mesure a été faite par un objet connecté (Profil PhdDevice), cette référence est obligatoire</t>
   </si>
   <si>
@@ -11420,7 +11420,7 @@
         <v>93</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:33:33+00:00</t>
+    <t>2024-10-02T08:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:34:04+00:00</t>
+    <t>2024-10-30T13:35:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:35:51+00:00</t>
+    <t>2024-11-18T15:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T15:35:30+00:00</t>
+    <t>2024-12-11T16:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:06:25+00:00</t>
+    <t>2024-12-11T16:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:39+00:00</t>
+    <t>2024-12-13T13:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:55+00:00</t>
+    <t>2024-12-13T15:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T15:58:46+00:00</t>
+    <t>2024-12-18T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4979,7 +4979,7 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>122</v>
@@ -13630,7 +13630,7 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="Y93" t="s" s="2">
         <v>658</v>
